--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf15-Klb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf15-Klb.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf15</t>
+  </si>
+  <si>
+    <t>Klb</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf15</t>
-  </si>
-  <si>
-    <t>Klb</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H2">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I2">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J2">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4516806666666667</v>
+        <v>0.2823496666666667</v>
       </c>
       <c r="N2">
-        <v>1.355042</v>
+        <v>0.8470489999999999</v>
       </c>
       <c r="O2">
-        <v>0.2125699625676683</v>
+        <v>0.1292103628953711</v>
       </c>
       <c r="P2">
-        <v>0.2343061665915354</v>
+        <v>0.1411524606683174</v>
       </c>
       <c r="Q2">
-        <v>0.005704576259777778</v>
+        <v>0.005225727630666667</v>
       </c>
       <c r="R2">
-        <v>0.051341186338</v>
+        <v>0.04703154867599999</v>
       </c>
       <c r="S2">
-        <v>0.04280842827080813</v>
+        <v>0.03033687344083433</v>
       </c>
       <c r="T2">
-        <v>0.04718577641348919</v>
+        <v>0.0444884326495899</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H3">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I3">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J3">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.75049</v>
       </c>
       <c r="O3">
-        <v>0.4314785492573264</v>
+        <v>0.4195646427067258</v>
       </c>
       <c r="P3">
-        <v>0.4755991092145868</v>
+        <v>0.4583423527370912</v>
       </c>
       <c r="Q3">
-        <v>0.01157925729</v>
+        <v>0.01696868964</v>
       </c>
       <c r="R3">
-        <v>0.10421331561</v>
+        <v>0.15271820676</v>
       </c>
       <c r="S3">
-        <v>0.08689336114642576</v>
+        <v>0.09850819377660609</v>
       </c>
       <c r="T3">
-        <v>0.09577858558446004</v>
+        <v>0.1444603430478881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H4">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I4">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J4">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02655733333333334</v>
+        <v>0.19989</v>
       </c>
       <c r="N4">
-        <v>0.07967200000000001</v>
+        <v>0.5996699999999999</v>
       </c>
       <c r="O4">
-        <v>0.01249841263790441</v>
+        <v>0.09147472969977793</v>
       </c>
       <c r="P4">
-        <v>0.01377642973773566</v>
+        <v>0.09992916122794536</v>
       </c>
       <c r="Q4">
-        <v>0.0003354102675555556</v>
+        <v>0.00369956412</v>
       </c>
       <c r="R4">
-        <v>0.003018692408</v>
+        <v>0.03329607707999999</v>
       </c>
       <c r="S4">
-        <v>0.002516994378913587</v>
+        <v>0.02147704902108983</v>
       </c>
       <c r="T4">
-        <v>0.002774368011039887</v>
+        <v>0.03149567310389313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H5">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I5">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J5">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5913585</v>
+        <v>0.55463</v>
       </c>
       <c r="N5">
-        <v>1.182717</v>
+        <v>1.10926</v>
       </c>
       <c r="O5">
-        <v>0.2783051467240258</v>
+        <v>0.253812743675961</v>
       </c>
       <c r="P5">
-        <v>0.2045087063224911</v>
+        <v>0.1848473683587818</v>
       </c>
       <c r="Q5">
-        <v>0.0074686607355</v>
+        <v>0.01026509204</v>
       </c>
       <c r="R5">
-        <v>0.044811964413</v>
+        <v>0.06159055223999999</v>
       </c>
       <c r="S5">
-        <v>0.05604651648343598</v>
+        <v>0.05959185401254216</v>
       </c>
       <c r="T5">
-        <v>0.04118501118226055</v>
+        <v>0.05826019368523438</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H6">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I6">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J6">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.13843</v>
+        <v>0.231494</v>
       </c>
       <c r="N6">
-        <v>0.41529</v>
+        <v>0.694482</v>
       </c>
       <c r="O6">
-        <v>0.06514792881307516</v>
+        <v>0.1059375210221642</v>
       </c>
       <c r="P6">
-        <v>0.07180958813365101</v>
+        <v>0.1157286570078643</v>
       </c>
       <c r="Q6">
-        <v>0.001748324756666667</v>
+        <v>0.004284490952</v>
       </c>
       <c r="R6">
-        <v>0.01573492281</v>
+        <v>0.038560418568</v>
       </c>
       <c r="S6">
-        <v>0.01311982372250005</v>
+        <v>0.02487271992640037</v>
       </c>
       <c r="T6">
-        <v>0.01446138281083385</v>
+        <v>0.03647535819457021</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.05008433333333333</v>
+        <v>0.060321</v>
       </c>
       <c r="H7">
-        <v>0.150253</v>
+        <v>0.120642</v>
       </c>
       <c r="I7">
-        <v>0.7986148759979164</v>
+        <v>0.7652133098225272</v>
       </c>
       <c r="J7">
-        <v>0.7986148759979165</v>
+        <v>0.6848199993188243</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4516806666666667</v>
+        <v>0.2823496666666667</v>
       </c>
       <c r="N7">
-        <v>1.355042</v>
+        <v>0.8470489999999999</v>
       </c>
       <c r="O7">
-        <v>0.2125699625676683</v>
+        <v>0.1292103628953711</v>
       </c>
       <c r="P7">
-        <v>0.2343061665915354</v>
+        <v>0.1411524606683174</v>
       </c>
       <c r="Q7">
-        <v>0.02262212506955556</v>
+        <v>0.017031614243</v>
       </c>
       <c r="R7">
-        <v>0.203599125626</v>
+        <v>0.102189685458</v>
       </c>
       <c r="S7">
-        <v>0.1697615342968601</v>
+        <v>0.09887348945453681</v>
       </c>
       <c r="T7">
-        <v>0.1871203901780462</v>
+        <v>0.0966640280187275</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,25 +903,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.05008433333333333</v>
+        <v>0.060321</v>
       </c>
       <c r="H8">
-        <v>0.150253</v>
+        <v>0.120642</v>
       </c>
       <c r="I8">
-        <v>0.7986148759979164</v>
+        <v>0.7652133098225272</v>
       </c>
       <c r="J8">
-        <v>0.7986148759979165</v>
+        <v>0.6848199993188243</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>2.75049</v>
       </c>
       <c r="O8">
-        <v>0.4314785492573264</v>
+        <v>0.4195646427067258</v>
       </c>
       <c r="P8">
-        <v>0.4755991092145868</v>
+        <v>0.4583423527370912</v>
       </c>
       <c r="Q8">
-        <v>0.04591881933000001</v>
+        <v>0.05530410243</v>
       </c>
       <c r="R8">
-        <v>0.41326937397</v>
+        <v>0.33182461458</v>
       </c>
       <c r="S8">
-        <v>0.3445851881109006</v>
+        <v>0.3210564489301197</v>
       </c>
       <c r="T8">
-        <v>0.3798205236301268</v>
+        <v>0.3138820096892032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,55 +965,55 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.05008433333333333</v>
+        <v>0.060321</v>
       </c>
       <c r="H9">
-        <v>0.150253</v>
+        <v>0.120642</v>
       </c>
       <c r="I9">
-        <v>0.7986148759979164</v>
+        <v>0.7652133098225272</v>
       </c>
       <c r="J9">
-        <v>0.7986148759979165</v>
+        <v>0.6848199993188243</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02655733333333334</v>
+        <v>0.19989</v>
       </c>
       <c r="N9">
-        <v>0.07967200000000001</v>
+        <v>0.5996699999999999</v>
       </c>
       <c r="O9">
-        <v>0.01249841263790441</v>
+        <v>0.09147472969977793</v>
       </c>
       <c r="P9">
-        <v>0.01377642973773566</v>
+        <v>0.09992916122794536</v>
       </c>
       <c r="Q9">
-        <v>0.001330106335111111</v>
+        <v>0.01205756469</v>
       </c>
       <c r="R9">
-        <v>0.011970957016</v>
+        <v>0.07234538813999999</v>
       </c>
       <c r="S9">
-        <v>0.009981418258990822</v>
+        <v>0.0699976806786881</v>
       </c>
       <c r="T9">
-        <v>0.01100206172669578</v>
+        <v>0.06843348812405223</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1027,25 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.05008433333333333</v>
+        <v>0.060321</v>
       </c>
       <c r="H10">
-        <v>0.150253</v>
+        <v>0.120642</v>
       </c>
       <c r="I10">
-        <v>0.7986148759979164</v>
+        <v>0.7652133098225272</v>
       </c>
       <c r="J10">
-        <v>0.7986148759979165</v>
+        <v>0.6848199993188243</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5913585</v>
+        <v>0.55463</v>
       </c>
       <c r="N10">
-        <v>1.182717</v>
+        <v>1.10926</v>
       </c>
       <c r="O10">
-        <v>0.2783051467240258</v>
+        <v>0.253812743675961</v>
       </c>
       <c r="P10">
-        <v>0.2045087063224911</v>
+        <v>0.1848473683587818</v>
       </c>
       <c r="Q10">
-        <v>0.0296177962335</v>
+        <v>0.03345583622999999</v>
       </c>
       <c r="R10">
-        <v>0.177706777401</v>
+        <v>0.13382334492</v>
       </c>
       <c r="S10">
-        <v>0.2222586302405898</v>
+        <v>0.1942208896634188</v>
       </c>
       <c r="T10">
-        <v>0.1633236951402305</v>
+        <v>0.1265871746735474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,55 +1089,55 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.05008433333333333</v>
+        <v>0.060321</v>
       </c>
       <c r="H11">
-        <v>0.150253</v>
+        <v>0.120642</v>
       </c>
       <c r="I11">
-        <v>0.7986148759979164</v>
+        <v>0.7652133098225272</v>
       </c>
       <c r="J11">
-        <v>0.7986148759979165</v>
+        <v>0.6848199993188243</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.13843</v>
+        <v>0.231494</v>
       </c>
       <c r="N11">
-        <v>0.41529</v>
+        <v>0.694482</v>
       </c>
       <c r="O11">
-        <v>0.06514792881307516</v>
+        <v>0.1059375210221642</v>
       </c>
       <c r="P11">
-        <v>0.07180958813365101</v>
+        <v>0.1157286570078643</v>
       </c>
       <c r="Q11">
-        <v>0.006933174263333335</v>
+        <v>0.013963949574</v>
       </c>
       <c r="R11">
-        <v>0.06239856837</v>
+        <v>0.08378369744400001</v>
       </c>
       <c r="S11">
-        <v>0.0520281050905751</v>
+        <v>0.08106480109576381</v>
       </c>
       <c r="T11">
-        <v>0.05734820532281716</v>
+        <v>0.07925329881329406</v>
       </c>
     </row>
   </sheetData>
